--- a/documentaion/Задачи.xlsx
+++ b/documentaion/Задачи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hylla\Documents\UNI\6-ти семестър\УСП\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42EB78A-6575-4DF0-86B9-E62CB23ADDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E7080-0AF2-4B4F-84F6-FD1BCCF0E05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Задача</t>
   </si>
@@ -116,43 +116,52 @@
     <t>5 дена</t>
   </si>
   <si>
-    <t>15 дена</t>
-  </si>
-  <si>
     <t>1 дена</t>
   </si>
   <si>
     <t>1.1, 1.2, 1.3</t>
   </si>
   <si>
-    <t>1.4, 1.5</t>
-  </si>
-  <si>
-    <t>Документиране на свършената работа</t>
-  </si>
-  <si>
     <t>Осигуряване на сигурност и надеждност</t>
   </si>
   <si>
     <t>Реализация на функционалностите</t>
   </si>
   <si>
-    <t>Документиране на функциите на проекта</t>
-  </si>
-  <si>
     <t>Проучване на конкуренцията</t>
   </si>
   <si>
     <t>Н</t>
   </si>
   <si>
-    <t>Й</t>
-  </si>
-  <si>
     <t>2.1, 2.2</t>
   </si>
   <si>
     <t>Запълване с подходящи данни</t>
+  </si>
+  <si>
+    <t>Потребителска документация</t>
+  </si>
+  <si>
+    <t>Обща документация</t>
+  </si>
+  <si>
+    <t>4 дена</t>
+  </si>
+  <si>
+    <t>Идентифициране и анализиране на риска</t>
+  </si>
+  <si>
+    <t>1.4, 1.5, 1.6</t>
+  </si>
+  <si>
+    <t>Оптимизиране на кода</t>
+  </si>
+  <si>
+    <t>6 дена</t>
+  </si>
+  <si>
+    <t>14 дена</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,6 +512,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:H25"/>
+  <dimension ref="D2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,35 +892,35 @@
   <sheetData>
     <row r="2" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="31"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="41"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="12">
@@ -971,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
@@ -985,72 +1006,72 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="16">
+    <row r="13" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="19">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="19">
         <v>2.1</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="E14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H14" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="4">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>22</v>
@@ -1060,62 +1081,62 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="16">
+      <c r="D16" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="16">
         <v>3</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>20</v>
@@ -1123,16 +1144,16 @@
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>20</v>
@@ -1140,81 +1161,115 @@
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="5">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="31">
         <v>3.6</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="F24" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="23">
+    <row r="25" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="23">
         <v>4</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="19">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="E26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="29">
-        <v>3.6</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>37</v>
+      <c r="F27" s="29">
+        <v>3.7</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
